--- a/patient_data/patient_35.xlsx
+++ b/patient_data/patient_35.xlsx
@@ -604,13 +604,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>1</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>1</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>1</v>
@@ -1137,64 +1137,64 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
+      <c r="S10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="T10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>1</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2156,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2233,19 +2233,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
